--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rusdi-prototype-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE669E0-930E-4226-8BDE-BFE62D123F3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED72495B-24B2-4E77-B7D6-3C80771ABBF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="416">
   <si>
     <t>text</t>
   </si>
@@ -1211,6 +1211,63 @@
   </si>
   <si>
     <t>denied</t>
+  </si>
+  <si>
+    <t>Jam buka perpustakaan hari ini?</t>
+  </si>
+  <si>
+    <t>jam_layanan</t>
+  </si>
+  <si>
+    <t>Perpustakaan tutup jam berapa?</t>
+  </si>
+  <si>
+    <t>Besok perpustakaan buka sampai jam berapa?</t>
+  </si>
+  <si>
+    <t>Bagaimana cara menjadi anggota perpustakaan?</t>
+  </si>
+  <si>
+    <t>keanggotaan</t>
+  </si>
+  <si>
+    <t>Apa syarat untuk mendaftar sebagai anggota?</t>
+  </si>
+  <si>
+    <t>Apakah mahasiswa STMIK bisa jadi anggota?</t>
+  </si>
+  <si>
+    <t>Apa saja fasilitas di perpustakaan?</t>
+  </si>
+  <si>
+    <t>fasilitas</t>
+  </si>
+  <si>
+    <t>Apakah ada layanan baca di tempat?</t>
+  </si>
+  <si>
+    <t>Bisa pinjam buku di perpustakaan?</t>
+  </si>
+  <si>
+    <t>peminjaman_buku</t>
+  </si>
+  <si>
+    <t>Berapa lama buku boleh dipinjam?</t>
+  </si>
+  <si>
+    <t>Berapa denda jika telat mengembalikan buku?</t>
+  </si>
+  <si>
+    <t>denda_keterlambatan</t>
+  </si>
+  <si>
+    <t>Apakah mahasiswa luar boleh masuk perpustakaan?</t>
+  </si>
+  <si>
+    <t>akses_mahasiswa_luar</t>
+  </si>
+  <si>
+    <t>Mahasiswa luar boleh pinjam buku?</t>
   </si>
 </sst>
 </file>
@@ -2054,15 +2111,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="C394" sqref="C394"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5274,6 +5332,110 @@
         <v>396</v>
       </c>
     </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rusdi-prototype-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rusdi-prototype-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED72495B-24B2-4E77-B7D6-3C80771ABBF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4208F28-83C6-4E6B-863E-83E4F9EF675E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="397">
   <si>
     <t>text</t>
   </si>
@@ -1211,63 +1211,6 @@
   </si>
   <si>
     <t>denied</t>
-  </si>
-  <si>
-    <t>Jam buka perpustakaan hari ini?</t>
-  </si>
-  <si>
-    <t>jam_layanan</t>
-  </si>
-  <si>
-    <t>Perpustakaan tutup jam berapa?</t>
-  </si>
-  <si>
-    <t>Besok perpustakaan buka sampai jam berapa?</t>
-  </si>
-  <si>
-    <t>Bagaimana cara menjadi anggota perpustakaan?</t>
-  </si>
-  <si>
-    <t>keanggotaan</t>
-  </si>
-  <si>
-    <t>Apa syarat untuk mendaftar sebagai anggota?</t>
-  </si>
-  <si>
-    <t>Apakah mahasiswa STMIK bisa jadi anggota?</t>
-  </si>
-  <si>
-    <t>Apa saja fasilitas di perpustakaan?</t>
-  </si>
-  <si>
-    <t>fasilitas</t>
-  </si>
-  <si>
-    <t>Apakah ada layanan baca di tempat?</t>
-  </si>
-  <si>
-    <t>Bisa pinjam buku di perpustakaan?</t>
-  </si>
-  <si>
-    <t>peminjaman_buku</t>
-  </si>
-  <si>
-    <t>Berapa lama buku boleh dipinjam?</t>
-  </si>
-  <si>
-    <t>Berapa denda jika telat mengembalikan buku?</t>
-  </si>
-  <si>
-    <t>denda_keterlambatan</t>
-  </si>
-  <si>
-    <t>Apakah mahasiswa luar boleh masuk perpustakaan?</t>
-  </si>
-  <si>
-    <t>akses_mahasiswa_luar</t>
-  </si>
-  <si>
-    <t>Mahasiswa luar boleh pinjam buku?</t>
   </si>
 </sst>
 </file>
@@ -2111,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="C410" sqref="C410"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5332,110 +5275,6 @@
         <v>396</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
